--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/50.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/50.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08784850264644581</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.932771285462375</v>
+        <v>-1.924979738825241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3934663959069092</v>
+        <v>0.3920851904129096</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2311830587303776</v>
+        <v>-0.2319773248918319</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08392787587428753</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.946319801721963</v>
+        <v>-1.93882026470301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3119431507029311</v>
+        <v>0.3102144537632952</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2112008405582012</v>
+        <v>-0.2129835592772007</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.08923020078377197</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.01583196130608</v>
+        <v>-2.005537892241128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2851249873691201</v>
+        <v>0.28567104535512</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2286703159659237</v>
+        <v>-0.2309450708915595</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1040979700666859</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.080213511898745</v>
+        <v>-2.073373186592837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2606210002593994</v>
+        <v>0.259428140969127</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.235255132855922</v>
+        <v>-0.2369896699879215</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1238496212656967</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.046638976024254</v>
+        <v>-2.037583757764438</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2472148386886757</v>
+        <v>0.249082240196948</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2230170097579252</v>
+        <v>-0.2248771110257429</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1413170207709456</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.912833598756972</v>
+        <v>-1.906988296225018</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2632914282176714</v>
+        <v>0.2610809154080357</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2100620030472924</v>
+        <v>-0.2108854701705649</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1493469724968844</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.640939793147726</v>
+        <v>-1.633617651971819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2614649080559446</v>
+        <v>0.2584192477383091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1847593696318446</v>
+        <v>-0.181954617249209</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1428494096053301</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.263946615786555</v>
+        <v>-1.255987893643012</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2454788415085853</v>
+        <v>0.2414899901242228</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1270407485020419</v>
+        <v>-0.1230679576466794</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1178775231884819</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7766906065999584</v>
+        <v>-0.7661329988545976</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2704281432860332</v>
+        <v>0.2673868631126703</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02699971336106879</v>
+        <v>-0.0239963944380696</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07028430488490205</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2418472499863747</v>
+        <v>-0.230184385836196</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1642724267403344</v>
+        <v>0.1662566320958793</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06138721791827111</v>
+        <v>0.0648081105952702</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.005904491686044992</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4251917808742643</v>
+        <v>0.4285133902810816</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04216422475336718</v>
+        <v>0.04460396511327562</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1608938754579717</v>
+        <v>0.1656069106954249</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1144711715410708</v>
       </c>
       <c r="E13" t="n">
-        <v>1.110979289270262</v>
+        <v>1.116604854564533</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1230840181756793</v>
+        <v>-0.1212472776773162</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2926515352777544</v>
+        <v>0.2949803119827538</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2560325040642446</v>
       </c>
       <c r="E14" t="n">
-        <v>1.827697916472161</v>
+        <v>1.831613765451978</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3453164780448015</v>
+        <v>-0.3347836911169861</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4398959251978058</v>
+        <v>0.443683289945623</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4285146488674412</v>
       </c>
       <c r="E15" t="n">
-        <v>2.532128778940971</v>
+        <v>2.53199737461279</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6168270210301832</v>
+        <v>-0.6080360714748219</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6282319085883916</v>
+        <v>0.6325434306008451</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6270671614354798</v>
       </c>
       <c r="E16" t="n">
-        <v>3.202924513539518</v>
+        <v>3.197887347625883</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9360358750974611</v>
+        <v>-0.9299153535003718</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7839650181089862</v>
+        <v>0.7864646204406218</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8449777250025126</v>
       </c>
       <c r="E17" t="n">
-        <v>3.859616183579888</v>
+        <v>3.849920004208163</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.195337495946664</v>
+        <v>-1.188253342609575</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9827987472732055</v>
+        <v>0.9859057296106593</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.074835385356751</v>
       </c>
       <c r="E18" t="n">
-        <v>4.39930981995147</v>
+        <v>4.388228054941473</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.55575620737984</v>
+        <v>-1.551057772623296</v>
       </c>
       <c r="G18" t="n">
-        <v>1.182263217212697</v>
+        <v>1.184938025315242</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.305084245884648</v>
       </c>
       <c r="E19" t="n">
-        <v>4.927428195058329</v>
+        <v>4.913127024007878</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.838402537154582</v>
+        <v>-1.829837895053312</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378706847652099</v>
+        <v>1.377029252395645</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.520227704311838</v>
       </c>
       <c r="E20" t="n">
-        <v>5.288933182271141</v>
+        <v>5.272417118266781</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.159297016742814</v>
+        <v>-2.152084379173726</v>
       </c>
       <c r="G20" t="n">
-        <v>1.588350772881407</v>
+        <v>1.58763388926877</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.706877025330871</v>
       </c>
       <c r="E21" t="n">
-        <v>5.600012488568239</v>
+        <v>5.582894884750425</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.474682734884048</v>
+        <v>-2.462348248612051</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768820017158176</v>
+        <v>1.766608044300449</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.856119305819349</v>
       </c>
       <c r="E22" t="n">
-        <v>5.836595761122902</v>
+        <v>5.815679112172544</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.78449909958251</v>
+        <v>-2.772047079439195</v>
       </c>
       <c r="G22" t="n">
-        <v>1.896312876504415</v>
+        <v>1.894627981007506</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.964028204054983</v>
       </c>
       <c r="E23" t="n">
-        <v>5.986862450591135</v>
+        <v>5.961129102988869</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.035651462012306</v>
+        <v>-3.024182784258219</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014349004365838</v>
+        <v>2.009492884415475</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.031914181158332</v>
       </c>
       <c r="E24" t="n">
-        <v>6.077002899627656</v>
+        <v>6.051920733473935</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.269913988126471</v>
+        <v>-3.258168631259156</v>
       </c>
       <c r="G24" t="n">
-        <v>2.117127629677265</v>
+        <v>2.113597233393447</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.06321756659222</v>
       </c>
       <c r="E25" t="n">
-        <v>6.091012061059925</v>
+        <v>6.063568997143205</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.44490367191806</v>
+        <v>-3.433240077743836</v>
       </c>
       <c r="G25" t="n">
-        <v>2.174414076572158</v>
+        <v>2.175117819751976</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.062927692682196</v>
       </c>
       <c r="E26" t="n">
-        <v>6.038362726901757</v>
+        <v>6.011802992080037</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.610315440233288</v>
+        <v>-3.597486727682519</v>
       </c>
       <c r="G26" t="n">
-        <v>2.201062874327424</v>
+        <v>2.201549070341696</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.035878177557922</v>
       </c>
       <c r="E27" t="n">
-        <v>5.937619408629057</v>
+        <v>5.911976584008428</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.698754203219856</v>
+        <v>-3.683313464634451</v>
       </c>
       <c r="G27" t="n">
-        <v>2.203179944059241</v>
+        <v>2.20261490544806</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.986564569002329</v>
       </c>
       <c r="E28" t="n">
-        <v>5.86580256313344</v>
+        <v>5.842139563724083</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.76580326167461</v>
+        <v>-3.751338565237978</v>
       </c>
       <c r="G28" t="n">
-        <v>2.211251089905785</v>
+        <v>2.212297944386966</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.918899246467369</v>
       </c>
       <c r="E29" t="n">
-        <v>5.670103557220401</v>
+        <v>5.648678811534407</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.804377732236418</v>
+        <v>-3.787228007360604</v>
       </c>
       <c r="G29" t="n">
-        <v>2.20820688963624</v>
+        <v>2.20436696315715</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.83684516354111</v>
       </c>
       <c r="E30" t="n">
-        <v>5.459354375586276</v>
+        <v>5.440188324296917</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.83056296472282</v>
+        <v>-3.809942705534917</v>
       </c>
       <c r="G30" t="n">
-        <v>2.16225333602298</v>
+        <v>2.159381421428162</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.743260615551728</v>
       </c>
       <c r="E31" t="n">
-        <v>5.181085269988079</v>
+        <v>5.163383646933901</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.726804647142393</v>
+        <v>-3.704857934263899</v>
       </c>
       <c r="G31" t="n">
-        <v>2.079886183022456</v>
+        <v>2.076144079765458</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.641393641512499</v>
       </c>
       <c r="E32" t="n">
-        <v>4.874174400990524</v>
+        <v>4.855376281820075</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.645142697369779</v>
+        <v>-3.62325292636683</v>
       </c>
       <c r="G32" t="n">
-        <v>1.933313415224223</v>
+        <v>1.927073169683679</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.533898512475508</v>
       </c>
       <c r="E33" t="n">
-        <v>4.5931472645486</v>
+        <v>4.575277735963968</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.509024603926497</v>
+        <v>-3.489841032060048</v>
       </c>
       <c r="G33" t="n">
-        <v>1.841198981168793</v>
+        <v>1.835631817798158</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.422634067096022</v>
       </c>
       <c r="E34" t="n">
-        <v>4.261682766806234</v>
+        <v>4.246340581466965</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.396948392372164</v>
+        <v>-3.382298269827986</v>
       </c>
       <c r="G34" t="n">
-        <v>1.716810184063827</v>
+        <v>1.714344162838282</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.309064064079007</v>
       </c>
       <c r="E35" t="n">
-        <v>3.917520230817236</v>
+        <v>3.901932757398694</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.278775019990196</v>
+        <v>-3.264797979615927</v>
       </c>
       <c r="G35" t="n">
-        <v>1.602862190856948</v>
+        <v>1.597239545658859</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.194687373807929</v>
       </c>
       <c r="E36" t="n">
-        <v>3.581837654140235</v>
+        <v>3.565388752348058</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.153821184274047</v>
+        <v>-3.137411703780324</v>
       </c>
       <c r="G36" t="n">
-        <v>1.457355258165078</v>
+        <v>1.455321411174442</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.080696188705894</v>
       </c>
       <c r="E37" t="n">
-        <v>3.233008804452692</v>
+        <v>3.222569460602695</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.015318102274267</v>
+        <v>-3.005459857564451</v>
       </c>
       <c r="G37" t="n">
-        <v>1.326676573884477</v>
+        <v>1.324956637233386</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9698352677202369</v>
       </c>
       <c r="E38" t="n">
-        <v>2.873721630289971</v>
+        <v>2.86062645896261</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.960639301269735</v>
+        <v>-2.953493095888783</v>
       </c>
       <c r="G38" t="n">
-        <v>1.18070826599588</v>
+        <v>1.178782462563971</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8640761366536376</v>
       </c>
       <c r="E39" t="n">
-        <v>2.530611788974517</v>
+        <v>2.519367958626429</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.821081334524273</v>
+        <v>-2.814048282870366</v>
       </c>
       <c r="G39" t="n">
-        <v>1.079744480461452</v>
+        <v>1.076545515094271</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7650056293955931</v>
       </c>
       <c r="E40" t="n">
-        <v>2.213839755170966</v>
+        <v>2.203829665459696</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.704301578045077</v>
+        <v>-2.698914000589624</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9596599051284844</v>
+        <v>0.9568595328901216</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6736746044713036</v>
       </c>
       <c r="E41" t="n">
-        <v>1.880845127029328</v>
+        <v>1.870535727459422</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.575235516880884</v>
+        <v>-2.570652425923522</v>
       </c>
       <c r="G41" t="n">
-        <v>0.837522502179699</v>
+        <v>0.8345542244108817</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.590026058335828</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549274045776326</v>
+        <v>1.540123924390601</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.510293307821311</v>
+        <v>-2.503323768259358</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7208763401008212</v>
+        <v>0.7174671278085495</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5133630583474945</v>
       </c>
       <c r="E43" t="n">
-        <v>1.28423151583367</v>
+        <v>1.274250627084218</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.430089216067469</v>
+        <v>-2.424594325077334</v>
       </c>
       <c r="G43" t="n">
-        <v>0.657410969685202</v>
+        <v>0.6550442317298389</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4427657751134094</v>
       </c>
       <c r="E44" t="n">
-        <v>1.015480463740106</v>
+        <v>1.002959091312473</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.316247076347181</v>
+        <v>-2.312858304728182</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5495601373059582</v>
+        <v>0.5466590217493226</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3767018068678459</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7945124055177106</v>
+        <v>0.7788373292137148</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.27184993399883</v>
+        <v>-2.26802606804874</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4429459656597141</v>
+        <v>0.4403587604426239</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3142554413857714</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5600520428872281</v>
+        <v>0.5433666133043236</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.180711542092172</v>
+        <v>-2.175628384663673</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3754756833307322</v>
+        <v>0.369498246446552</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2549872522655952</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3613482580030997</v>
+        <v>0.3447504313056496</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.090881353274969</v>
+        <v>-2.082744505264335</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2945802588058449</v>
+        <v>0.2888086887024828</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1989863012616815</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2416520554623136</v>
+        <v>0.2247081973673182</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.986525146001315</v>
+        <v>-1.979094961266681</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2049975481400507</v>
+        <v>0.1980725400448708</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1463061622161681</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1134773536576208</v>
+        <v>0.09791032091235222</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.887480593682387</v>
+        <v>-1.878346532825663</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1528709111984284</v>
+        <v>0.1465328424357937</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.09722687712780734</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008407912891558065</v>
+        <v>-0.007151819613255938</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.80292993876191</v>
+        <v>-1.792144563514368</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08638616133080985</v>
+        <v>0.0795633566019935</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.05106407166318757</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08172961604878137</v>
+        <v>-0.09567307531695944</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.672986388695081</v>
+        <v>-1.661781979645448</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02810834178218914</v>
+        <v>0.01911006539791883</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.007408443482559696</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1859011272389352</v>
+        <v>-0.1934262150994787</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.552566002301205</v>
+        <v>-1.539051797171754</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.008787073475073681</v>
+        <v>-0.01441701891361762</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.0342651082926582</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3061886492565393</v>
+        <v>-0.3118682363301741</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.439810868384598</v>
+        <v>-1.427439880910329</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07616975291860104</v>
+        <v>-0.08053529671041805</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.07429241253421826</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3401376874663483</v>
+        <v>-0.3455340252103469</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.368267051881981</v>
+        <v>-1.35664798917453</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1402921449751293</v>
+        <v>-0.1444503619380373</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1125820888116957</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4687518637464047</v>
+        <v>-0.4724720662820401</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.323478616645266</v>
+        <v>-1.309164305161997</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1499372226636722</v>
+        <v>-0.1505752636793992</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1488631460975525</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5482076808536561</v>
+        <v>-0.548177019843747</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.237692031015835</v>
+        <v>-1.230150882626291</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1999175889116587</v>
+        <v>-0.2015309420521128</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1828258386619788</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6483874205632656</v>
+        <v>-0.6459944017422662</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.196547875814028</v>
+        <v>-1.18875851924903</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2297478314570144</v>
+        <v>-0.2288718026024691</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.214262083199813</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6707889384220778</v>
+        <v>-0.6660861235212608</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.156088483166857</v>
+        <v>-1.150627903306858</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2641947460658233</v>
+        <v>-0.2628383613893691</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2431456473617061</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7660395557767794</v>
+        <v>-0.7649007182658707</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.142552377316042</v>
+        <v>-1.135935439368044</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3167126758958092</v>
+        <v>-0.3160060126198094</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2693996620738275</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8324513032398525</v>
+        <v>-0.8325564267023979</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102481357461053</v>
+        <v>-1.098231157468418</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3504558473248001</v>
+        <v>-0.3487359106737097</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2927604661541913</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.963671665362181</v>
+        <v>-0.9606887871124544</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.093410078672237</v>
+        <v>-1.087055949380602</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3938893579331521</v>
+        <v>-0.3923271064758798</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3131136469782892</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.084984141139603</v>
+        <v>-1.080065239121331</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.09315749035251</v>
+        <v>-1.086363886585512</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4354875880912318</v>
+        <v>-0.4321499181554145</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3305951426365621</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.14487823392486</v>
+        <v>-1.14161794653786</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.132295539477408</v>
+        <v>-1.125386591911228</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4951290925567613</v>
+        <v>-0.4909737956900351</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3454326036043739</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.240312817339016</v>
+        <v>-1.235989614941835</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.160950443309583</v>
+        <v>-1.153647282758857</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5235722894157536</v>
+        <v>-0.5205266290981181</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3581329399532116</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.371476237585799</v>
+        <v>-1.361988845091074</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.121717491058775</v>
+        <v>-1.112786376886686</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5485858333092014</v>
+        <v>-0.5457971414555658</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3691824574464286</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.430760030269056</v>
+        <v>-1.421646410085603</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.200374661860299</v>
+        <v>-1.189866695750029</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6033712178243685</v>
+        <v>-0.600359138612824</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3787756433850348</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.530187845211847</v>
+        <v>-1.522894904997758</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.291605766820729</v>
+        <v>-1.280913834651005</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6486400088829928</v>
+        <v>-0.6478588831543566</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3869851208573568</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.555325493193022</v>
+        <v>-1.553063878700204</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.361796118743074</v>
+        <v>-1.350425264211077</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6722694271862591</v>
+        <v>-0.6709612240968049</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.394008905889866</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.62161605666455</v>
+        <v>-1.621286085796004</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.443998286309325</v>
+        <v>-1.432239058985146</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6671242177138968</v>
+        <v>-0.6681535516179875</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.39982414370798</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.676928518540535</v>
+        <v>-1.678373966150534</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.519000956739305</v>
+        <v>-1.509104750779125</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6921786429538902</v>
+        <v>-0.6920019771348902</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4045865909798738</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.710280397081162</v>
+        <v>-1.708604261872799</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.630412846412275</v>
+        <v>-1.62062030386655</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7336542290723336</v>
+        <v>-0.7310538834224252</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4082048722998636</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.690381401650168</v>
+        <v>-1.690124433186168</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.725023962703158</v>
+        <v>-1.712647135036525</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7559389430838731</v>
+        <v>-0.7543270499915099</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.410543970208435</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.679842774529989</v>
+        <v>-1.678441128362716</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.777106798202053</v>
+        <v>-1.766470347859784</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7772906863653218</v>
+        <v>-0.7782543181053216</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4113579387788103</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.630573451702275</v>
+        <v>-1.627993546725639</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.849065998386534</v>
+        <v>-1.841546750718354</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7750071711511407</v>
+        <v>-0.7736507864746864</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4103466329138943</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.542534011868571</v>
+        <v>-1.540136612903299</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.951760670932734</v>
+        <v>-1.946793587327462</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7778863859864126</v>
+        <v>-0.7778557249765036</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4068159716177985</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.425105264012966</v>
+        <v>-1.424268656456875</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004799107907129</v>
+        <v>-2.002268114541538</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7649488998528706</v>
+        <v>-0.7658935509676885</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.400478461052776</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.289545638964457</v>
+        <v>-1.291303536865911</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.056168709913615</v>
+        <v>-2.052656564230934</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7519340311705105</v>
+        <v>-0.7535809654170555</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3905938858154556</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.10665417490487</v>
+        <v>-1.113774829444232</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082653982282699</v>
+        <v>-2.082288970259972</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.725428318128154</v>
+        <v>-0.7280637049322441</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3775770875969239</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.945486766389913</v>
+        <v>-0.9574518604949098</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079528749344108</v>
+        <v>-2.078661480778109</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6703246431291687</v>
+        <v>-0.6724723738708954</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3613464011650105</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7033056694547054</v>
+        <v>-0.7142005483090661</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.114331185663054</v>
+        <v>-2.117155648694917</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6116818115578209</v>
+        <v>-0.6104597513057303</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3419818785693776</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4456626632367746</v>
+        <v>-0.4556289515053173</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.116475996308599</v>
+        <v>-2.120748097022597</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5175568912812097</v>
+        <v>-0.5167801456968464</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3195865037380907</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1559599210386705</v>
+        <v>-0.1606846366608511</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.102471215020602</v>
+        <v>-2.105129962594147</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4488484881711373</v>
+        <v>-0.4470102876246833</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2939827551731151</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1445267363588852</v>
+        <v>0.1434711215891582</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.03720122516462</v>
+        <v>-2.034127093909212</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3344464200079862</v>
+        <v>-0.3308766024257145</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2661414419713834</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4890572044667926</v>
+        <v>0.49226639017061</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.97957531708859</v>
+        <v>-1.975132390747955</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2537437218310988</v>
+        <v>-0.250877647428645</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2369707084664358</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7940145291187107</v>
+        <v>0.8022404400628904</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.907576695605655</v>
+        <v>-1.902437326325656</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1797441044395732</v>
+        <v>-0.1758793571429379</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2076833251839955</v>
       </c>
       <c r="E86" t="n">
-        <v>1.110082819742444</v>
+        <v>1.11746774298626</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.857926300226213</v>
+        <v>-1.850469104601897</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1057663877694113</v>
+        <v>-0.1051604678116842</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1793500118940644</v>
       </c>
       <c r="E87" t="n">
-        <v>1.355141671464833</v>
+        <v>1.359751043287831</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.68342865264126</v>
+        <v>-1.670581689489355</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05906382948551472</v>
+        <v>-0.05790017115706049</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1535229750007293</v>
       </c>
       <c r="E88" t="n">
-        <v>1.579102828273591</v>
+        <v>1.584377982026044</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.5022512850404</v>
+        <v>-1.48636012161895</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01034101656392118</v>
+        <v>0.01034685675628482</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1309721042823266</v>
       </c>
       <c r="E89" t="n">
-        <v>1.766333555259359</v>
+        <v>1.775610700828993</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.269938653151644</v>
+        <v>-1.247366309666196</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06604477132826986</v>
+        <v>0.06710038609799684</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1132849478755647</v>
       </c>
       <c r="E90" t="n">
-        <v>1.948343150272037</v>
+        <v>1.959459956436216</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.040814766293433</v>
+        <v>-1.01473246719744</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09845053870598844</v>
+        <v>0.09854398178380659</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.101720319848566</v>
       </c>
       <c r="E91" t="n">
-        <v>2.132472735112715</v>
+        <v>2.14594605889562</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8163323723162205</v>
+        <v>-0.7879826185350463</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08159136340026568</v>
+        <v>0.08202353763517466</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.09751663982435099</v>
       </c>
       <c r="E92" t="n">
-        <v>2.249641594408138</v>
+        <v>2.259939313593317</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6160721761671833</v>
+        <v>-0.5869266961764639</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09283373370026267</v>
+        <v>0.09108313603926314</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1015716732110466</v>
       </c>
       <c r="E93" t="n">
-        <v>2.353766384059383</v>
+        <v>2.366078969610016</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3671894584947047</v>
+        <v>-0.3366875938275311</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04377465779763948</v>
+        <v>0.04074943815327665</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1131258661748042</v>
       </c>
       <c r="E94" t="n">
-        <v>2.373606977566741</v>
+        <v>2.38321263395683</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2253034450682883</v>
+        <v>-0.194731498092751</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00862838015328528</v>
+        <v>0.006026574455285978</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1308948397142826</v>
       </c>
       <c r="E95" t="n">
-        <v>2.328539673144662</v>
+        <v>2.334363804979297</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.06097065229224149</v>
+        <v>-0.03396852289897601</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02806992861170486</v>
+        <v>-0.03002785310161343</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1523122088436459</v>
       </c>
       <c r="E96" t="n">
-        <v>2.229830201862598</v>
+        <v>2.23296638516187</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05883651390345362</v>
+        <v>0.08678913460390066</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07002149040778451</v>
+        <v>-0.07374169294341988</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1754435862783636</v>
       </c>
       <c r="E97" t="n">
-        <v>2.081696642655183</v>
+        <v>2.088272699256636</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1304693933396162</v>
+        <v>0.1530096157670647</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.125504777910406</v>
+        <v>-0.1297535178549503</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1985879605637136</v>
       </c>
       <c r="E98" t="n">
-        <v>1.888231510321235</v>
+        <v>1.893502283929416</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1964387462311439</v>
+        <v>0.2148776935712299</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1399417334333112</v>
+        <v>-0.1406746775749474</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2217396624337953</v>
       </c>
       <c r="E99" t="n">
-        <v>1.690965872806652</v>
+        <v>1.696032239682105</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2066371821461412</v>
+        <v>0.221480031038319</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1341059212139491</v>
+        <v>-0.1334255388035857</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2441090890958703</v>
       </c>
       <c r="E100" t="n">
-        <v>1.532416330518694</v>
+        <v>1.541512430125056</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2302461597761349</v>
+        <v>0.2419455251285863</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1300250867998593</v>
+        <v>-0.1312500671481317</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2644522347854468</v>
       </c>
       <c r="E101" t="n">
-        <v>1.389772552133096</v>
+        <v>1.400884978153002</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2215836944527735</v>
+        <v>0.2292124457277715</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1105378249305009</v>
+        <v>-0.1100370284353192</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2810872253125475</v>
       </c>
       <c r="E102" t="n">
-        <v>1.208113368662236</v>
+        <v>1.225851492918686</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2362119162755878</v>
+        <v>0.2422243943139498</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1421697668200379</v>
+        <v>-0.1417492729698561</v>
       </c>
     </row>
   </sheetData>
